--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H2">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I2">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J2">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.369012666666666</v>
+        <v>1.484826</v>
       </c>
       <c r="N2">
-        <v>4.107037999999999</v>
+        <v>4.454478</v>
       </c>
       <c r="O2">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="P2">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="Q2">
-        <v>2.187516134463111</v>
+        <v>2.372571789112</v>
       </c>
       <c r="R2">
-        <v>19.687645210168</v>
+        <v>21.353146102008</v>
       </c>
       <c r="S2">
-        <v>0.0596701648331992</v>
+        <v>0.05439359951720808</v>
       </c>
       <c r="T2">
-        <v>0.0596701648331992</v>
+        <v>0.05439359951720808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H3">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I3">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J3">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>43.148598</v>
       </c>
       <c r="O3">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="P3">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="Q3">
         <v>22.98207474692533</v>
@@ -635,10 +635,10 @@
         <v>206.838672722328</v>
       </c>
       <c r="S3">
-        <v>0.6268955765642904</v>
+        <v>0.5268872265933305</v>
       </c>
       <c r="T3">
-        <v>0.6268955765642904</v>
+        <v>0.5268872265933304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H4">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I4">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J4">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.725161</v>
+        <v>8.653369666666666</v>
       </c>
       <c r="N4">
-        <v>20.175483</v>
+        <v>25.960109</v>
       </c>
       <c r="O4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="P4">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="Q4">
-        <v>10.74599129179867</v>
+        <v>13.82703478514711</v>
       </c>
       <c r="R4">
-        <v>96.71392162618801</v>
+        <v>124.443313066324</v>
       </c>
       <c r="S4">
-        <v>0.2931247278937786</v>
+        <v>0.3169987083490073</v>
       </c>
       <c r="T4">
-        <v>0.2931247278937786</v>
+        <v>0.3169987083490072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.597878666666667</v>
+        <v>1.597878666666666</v>
       </c>
       <c r="H5">
-        <v>4.793636</v>
+        <v>4.793635999999999</v>
       </c>
       <c r="I5">
-        <v>0.98224549682877</v>
+        <v>0.8992131381376172</v>
       </c>
       <c r="J5">
-        <v>0.9822454968287699</v>
+        <v>0.8992131381376171</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05862</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N5">
-        <v>0.17586</v>
+        <v>0.076456</v>
       </c>
       <c r="O5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="P5">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="Q5">
-        <v>0.09366764744</v>
+        <v>0.04072247044622222</v>
       </c>
       <c r="R5">
-        <v>0.84300882696</v>
+        <v>0.3665022340159999</v>
       </c>
       <c r="S5">
-        <v>0.002555027537501824</v>
+        <v>0.000933603678071294</v>
       </c>
       <c r="T5">
-        <v>0.002555027537501824</v>
+        <v>0.0009336036780712939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H6">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I6">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J6">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.369012666666666</v>
+        <v>1.484826</v>
       </c>
       <c r="N6">
-        <v>4.107037999999999</v>
+        <v>4.454478</v>
       </c>
       <c r="O6">
-        <v>0.06074872832285553</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="P6">
-        <v>0.06074872832285554</v>
+        <v>0.06049021884829667</v>
       </c>
       <c r="Q6">
-        <v>0.03954028017622221</v>
+        <v>0.265925902354</v>
       </c>
       <c r="R6">
-        <v>0.355862521586</v>
+        <v>2.393333121186</v>
       </c>
       <c r="S6">
-        <v>0.00107856348965633</v>
+        <v>0.00609661933108859</v>
       </c>
       <c r="T6">
-        <v>0.00107856348965633</v>
+        <v>0.006096619331088589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H7">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I7">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J7">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.148598</v>
       </c>
       <c r="O7">
-        <v>0.6382269794957115</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="P7">
-        <v>0.6382269794957116</v>
+        <v>0.5859425360316464</v>
       </c>
       <c r="Q7">
-        <v>0.4154107301006666</v>
+        <v>2.575908974847333</v>
       </c>
       <c r="R7">
-        <v>3.738696570906</v>
+        <v>23.183180773626</v>
       </c>
       <c r="S7">
-        <v>0.01133140293142117</v>
+        <v>0.05905530943831588</v>
       </c>
       <c r="T7">
-        <v>0.01133140293142117</v>
+        <v>0.05905530943831588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H8">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I8">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J8">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.725161</v>
+        <v>8.653369666666666</v>
       </c>
       <c r="N8">
-        <v>20.175483</v>
+        <v>25.960109</v>
       </c>
       <c r="O8">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="P8">
-        <v>0.2984230814395656</v>
+        <v>0.3525289999716321</v>
       </c>
       <c r="Q8">
-        <v>0.1942383417223333</v>
+        <v>1.549781009364778</v>
       </c>
       <c r="R8">
-        <v>1.748145075501</v>
+        <v>13.948029084283</v>
       </c>
       <c r="S8">
-        <v>0.005298353545787005</v>
+        <v>0.03553029162262489</v>
       </c>
       <c r="T8">
-        <v>0.005298353545787004</v>
+        <v>0.03553029162262488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02888233333333333</v>
+        <v>0.1790956666666667</v>
       </c>
       <c r="H9">
-        <v>0.086647</v>
+        <v>0.537287</v>
       </c>
       <c r="I9">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="J9">
-        <v>0.01775450317123003</v>
+        <v>0.1007868618623829</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05862</v>
+        <v>0.02548533333333333</v>
       </c>
       <c r="N9">
-        <v>0.17586</v>
+        <v>0.076456</v>
       </c>
       <c r="O9">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="P9">
-        <v>0.002601210741867345</v>
+        <v>0.001038245148424882</v>
       </c>
       <c r="Q9">
-        <v>0.00169308238</v>
+        <v>0.004564312763555555</v>
       </c>
       <c r="R9">
-        <v>0.01523774142</v>
+        <v>0.041078814872</v>
       </c>
       <c r="S9">
-        <v>4.618320436552139E-05</v>
+        <v>0.0001046414703535878</v>
       </c>
       <c r="T9">
-        <v>4.618320436552139E-05</v>
+        <v>0.0001046414703535878</v>
       </c>
     </row>
   </sheetData>
